--- a/inputs/2025-2026 Dprog Changes.xlsx
+++ b/inputs/2025-2026 Dprog Changes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jspenc35\projects\curriculog_excel_sheet_generator\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F718733-FFB0-4C7D-AEF3-9B92A70E6127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDE6AF-0467-4888-9D54-39961F992B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{125E1219-2066-4676-87E7-42C796F6CDDF}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
